--- a/Data_Driven/BuyBooks/SecB_buybook_data.xlsx
+++ b/Data_Driven/BuyBooks/SecB_buybook_data.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
